--- a/public/imports/lotes.xlsx
+++ b/public/imports/lotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A4BFAF-721E-4706-9040-3C51349B92D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAD629-3951-4E17-85ED-E3EEEE03094D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{28FA0536-FCBD-4290-8EA8-AE606CD8E5D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="22">
   <si>
     <t xml:space="preserve">MANZANA </t>
   </si>
@@ -83,6 +83,15 @@
   <si>
     <t>D14</t>
   </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +99,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +140,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42474C88-9AFE-415C-B849-50ED6529E24C}">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,87 +2629,87 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>130.05000000000001</v>
+        <v>90.79</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" s="1">
-        <v>53574999.999999888</v>
+        <v>52567450</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C129">
-        <v>96</v>
+        <v>98.15</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="1">
-        <v>37333333.333333246</v>
+        <v>50800000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C130">
-        <v>96</v>
+        <v>184.51</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E130" s="1">
-        <v>37333333.333333246</v>
+        <v>105698300</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C131">
-        <v>96</v>
+        <v>143.11000000000001</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" s="1">
-        <v>37333333.333333246</v>
+        <v>74027200</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C132">
-        <v>96</v>
+        <v>121.66</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
       <c r="E132" s="1">
-        <v>37333333.333333246</v>
+        <v>68932600</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,16 +2717,16 @@
         <v>10</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>96</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133" s="1">
-        <v>37333333.333333246</v>
+        <v>53574999.999999888</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>96</v>
@@ -2742,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>96</v>
@@ -2759,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C136">
         <v>96</v>
@@ -2776,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>96</v>
@@ -2793,16 +2802,16 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C138">
         <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" s="1">
-        <v>40333333.333333246</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,16 +2819,16 @@
         <v>10</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>96</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" s="1">
-        <v>40000000</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C140">
         <v>96</v>
@@ -2844,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C141">
         <v>96</v>
@@ -2861,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C142">
         <v>96</v>
@@ -2878,16 +2887,16 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>96</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143" s="1">
-        <v>37333333.333333246</v>
+        <v>40333333.333333246</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,16 +2904,16 @@
         <v>10</v>
       </c>
       <c r="B144">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C144">
         <v>96</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144" s="1">
-        <v>37333333.333333246</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C145">
         <v>96</v>
@@ -2929,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="B146">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C146">
         <v>96</v>
@@ -2946,7 +2955,7 @@
         <v>10</v>
       </c>
       <c r="B147">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C147">
         <v>96</v>
@@ -2963,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="B148">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C148">
         <v>96</v>
@@ -2980,101 +2989,101 @@
         <v>10</v>
       </c>
       <c r="B149">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>170.12</v>
+        <v>96</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149" s="1">
-        <v>69000000</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C150">
-        <v>155.24</v>
+        <v>96</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150" s="1">
-        <v>63371111.111110978</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>107.94</v>
+        <v>96</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
       </c>
       <c r="E151" s="1">
-        <v>41976666.666666567</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C152">
-        <v>150.63999999999999</v>
+        <v>96</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
       </c>
       <c r="E152" s="1">
-        <v>58582222.222222082</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C153">
-        <v>103.34</v>
+        <v>96</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" s="1">
-        <v>43187777.777777687</v>
+        <v>37333333.333333246</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C154">
-        <v>90</v>
+        <v>170.12</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E154" s="1">
-        <v>34999999.999999918</v>
+        <v>69000000</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,16 +3091,16 @@
         <v>11</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>90</v>
+        <v>155.24</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E155" s="1">
-        <v>34999999.999999918</v>
+        <v>63371111.111110978</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,16 +3108,16 @@
         <v>11</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C156">
-        <v>90</v>
+        <v>107.94</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
       </c>
       <c r="E156" s="1">
-        <v>34999999.999999918</v>
+        <v>41976666.666666567</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,16 +3125,16 @@
         <v>11</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C157">
-        <v>90</v>
+        <v>150.63999999999999</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
       </c>
       <c r="E157" s="1">
-        <v>34999999.999999918</v>
+        <v>58582222.222222082</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,16 +3142,16 @@
         <v>11</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>90</v>
+        <v>103.34</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E158" s="1">
-        <v>34999999.999999918</v>
+        <v>43187777.777777687</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,7 +3159,7 @@
         <v>11</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>90</v>
@@ -3167,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>90</v>
@@ -3184,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="B161">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C161">
         <v>90</v>
@@ -3201,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="B162">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C162">
         <v>90</v>
@@ -3218,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C163">
         <v>90</v>
@@ -3235,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="B164">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C164">
         <v>90</v>
@@ -3252,16 +3261,16 @@
         <v>11</v>
       </c>
       <c r="B165">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C165">
         <v>90</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,16 +3278,16 @@
         <v>11</v>
       </c>
       <c r="B166">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>90</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E166" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="B167">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C167">
         <v>90</v>
@@ -3303,7 +3312,7 @@
         <v>11</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C168">
         <v>90</v>
@@ -3320,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="B169">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C169">
         <v>90</v>
@@ -3337,16 +3346,16 @@
         <v>11</v>
       </c>
       <c r="B170">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C170">
         <v>90</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E170" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,16 +3363,16 @@
         <v>11</v>
       </c>
       <c r="B171">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C171">
         <v>90</v>
       </c>
       <c r="D171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E171" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B172">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C172">
         <v>90</v>
@@ -3388,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="B173">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C173">
         <v>90</v>
@@ -3405,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="B174">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C174">
         <v>90</v>
@@ -3422,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="B175">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C175">
         <v>90</v>
@@ -3439,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="B176">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C176">
         <v>90</v>
@@ -3456,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="B177">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C177">
         <v>90</v>
@@ -3473,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B178">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C178">
         <v>90</v>
@@ -3490,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="B179">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C179">
         <v>90</v>
@@ -3504,78 +3513,78 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C180">
-        <v>116.06</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" s="1">
-        <v>48134444.444444343</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C181">
-        <v>95.02</v>
+        <v>90</v>
       </c>
       <c r="D181" t="s">
         <v>6</v>
       </c>
       <c r="E181" s="1">
-        <v>36952222.222222134</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C182">
-        <v>113.78</v>
+        <v>90</v>
       </c>
       <c r="D182" t="s">
         <v>6</v>
       </c>
       <c r="E182" s="1">
-        <v>44247777.777777679</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C183">
-        <v>92.78</v>
+        <v>90</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E183" s="1">
-        <v>38900000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C184">
         <v>90</v>
@@ -3584,7 +3593,7 @@
         <v>6</v>
       </c>
       <c r="E184" s="1">
-        <v>34000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,16 +3601,16 @@
         <v>12</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>116.06</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" s="1">
-        <v>34000000</v>
+        <v>48134444.444444343</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,16 +3618,16 @@
         <v>12</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>90</v>
+        <v>95.02</v>
       </c>
       <c r="D186" t="s">
         <v>6</v>
       </c>
       <c r="E186" s="1">
-        <v>34000000</v>
+        <v>36952222.222222134</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,16 +3635,16 @@
         <v>12</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>90</v>
+        <v>113.78</v>
       </c>
       <c r="D187" t="s">
         <v>6</v>
       </c>
       <c r="E187" s="1">
-        <v>34000000</v>
+        <v>44247777.777777679</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,16 +3652,16 @@
         <v>12</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>90</v>
+        <v>92.78</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E188" s="1">
-        <v>34000000</v>
+        <v>38900000</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
         <v>90</v>
@@ -3669,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="1">
-        <v>34999999.999999918</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
         <v>90</v>
@@ -3686,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="1">
-        <v>34999999.999999918</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,16 +3703,16 @@
         <v>12</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
         <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E191" s="1">
-        <v>37999999.999999918</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,16 +3720,16 @@
         <v>12</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
         <v>90</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" s="1">
-        <v>37999999.999999918</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
         <v>90</v>
@@ -3737,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="1">
-        <v>34999999.999999918</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
         <v>90</v>
@@ -3762,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
         <v>90</v>
@@ -3779,16 +3788,16 @@
         <v>12</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
         <v>90</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E196" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,16 +3805,16 @@
         <v>12</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
         <v>90</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E197" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -3813,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
         <v>90</v>
@@ -3827,78 +3836,78 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>141.1</v>
+        <v>90</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199" s="1">
-        <v>57800000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>94.87</v>
+        <v>90</v>
       </c>
       <c r="D200" t="s">
         <v>6</v>
       </c>
       <c r="E200" s="1">
-        <v>36893888.888888806</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>138.63</v>
+        <v>90</v>
       </c>
       <c r="D201" t="s">
         <v>6</v>
       </c>
       <c r="E201" s="1">
-        <v>53500000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C202">
-        <v>92.4</v>
+        <v>90</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E202" s="1">
-        <v>38500000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C203">
         <v>90</v>
@@ -3915,16 +3924,16 @@
         <v>13</v>
       </c>
       <c r="B204">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>90</v>
+        <v>141.1</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E204" s="1">
-        <v>34999999.999999918</v>
+        <v>57800000</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -3932,16 +3941,16 @@
         <v>13</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>90</v>
+        <v>94.87</v>
       </c>
       <c r="D205" t="s">
         <v>6</v>
       </c>
       <c r="E205" s="1">
-        <v>34999999.999999918</v>
+        <v>36893888.888888806</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,16 +3958,16 @@
         <v>13</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>90</v>
+        <v>138.63</v>
       </c>
       <c r="D206" t="s">
         <v>6</v>
       </c>
       <c r="E206" s="1">
-        <v>34999999.999999918</v>
+        <v>53500000</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -3966,16 +3975,16 @@
         <v>13</v>
       </c>
       <c r="B207">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>90</v>
+        <v>92.4</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E207" s="1">
-        <v>35000000</v>
+        <v>38500000</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="B208">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C208">
         <v>90</v>
@@ -4000,7 +4009,7 @@
         <v>13</v>
       </c>
       <c r="B209">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C209">
         <v>90</v>
@@ -4017,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="B210">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C210">
         <v>90</v>
@@ -4034,7 +4043,7 @@
         <v>13</v>
       </c>
       <c r="B211">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C211">
         <v>90</v>
@@ -4051,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="B212">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C212">
         <v>90</v>
@@ -4060,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="1">
-        <v>33000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4068,7 +4077,7 @@
         <v>13</v>
       </c>
       <c r="B213">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C213">
         <v>90</v>
@@ -4077,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="1">
-        <v>33000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4085,16 +4094,16 @@
         <v>13</v>
       </c>
       <c r="B214">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C214">
         <v>90</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214" s="1">
-        <v>33000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4102,16 +4111,16 @@
         <v>13</v>
       </c>
       <c r="B215">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C215">
         <v>90</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215" s="1">
-        <v>38000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="B216">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C216">
         <v>90</v>
@@ -4136,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="B217">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C217">
         <v>90</v>
@@ -4145,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="E217" s="1">
-        <v>34999999.999999918</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,7 +4162,7 @@
         <v>13</v>
       </c>
       <c r="B218">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C218">
         <v>90</v>
@@ -4162,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="1">
-        <v>34999999.999999918</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4170,16 +4179,16 @@
         <v>13</v>
       </c>
       <c r="B219">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C219">
         <v>90</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E219" s="1">
-        <v>34999999.999999918</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4187,16 +4196,16 @@
         <v>13</v>
       </c>
       <c r="B220">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C220">
         <v>90</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E220" s="1">
-        <v>34999999.999999918</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4204,7 +4213,7 @@
         <v>13</v>
       </c>
       <c r="B221">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C221">
         <v>90</v>
@@ -4221,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="B222">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C222">
         <v>90</v>
@@ -4238,7 +4247,7 @@
         <v>13</v>
       </c>
       <c r="B223">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C223">
         <v>90</v>
@@ -4255,7 +4264,7 @@
         <v>13</v>
       </c>
       <c r="B224">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>90</v>
@@ -4272,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="B225">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C225">
         <v>90</v>
@@ -4289,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="B226">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C226">
         <v>90</v>
@@ -4306,7 +4315,7 @@
         <v>13</v>
       </c>
       <c r="B227">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C227">
         <v>90</v>
@@ -4323,7 +4332,7 @@
         <v>13</v>
       </c>
       <c r="B228">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C228">
         <v>90</v>
@@ -4337,78 +4346,78 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C229">
-        <v>121.32</v>
+        <v>90</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E229" s="1">
-        <v>50179999.999999888</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C230">
-        <v>144.96</v>
+        <v>90</v>
       </c>
       <c r="D230" t="s">
         <v>6</v>
       </c>
       <c r="E230" s="1">
-        <v>56373333.333333209</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C231">
-        <v>123.6</v>
+        <v>90</v>
       </c>
       <c r="D231" t="s">
         <v>6</v>
       </c>
       <c r="E231" s="1">
-        <v>48066666.666666552</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C232">
-        <v>147.24</v>
+        <v>90</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E232" s="1">
-        <v>60259999.999999873</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C233">
         <v>90</v>
@@ -4425,16 +4434,16 @@
         <v>14</v>
       </c>
       <c r="B234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>90</v>
+        <v>121.32</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E234" s="1">
-        <v>34999999.999999918</v>
+        <v>50179999.999999888</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4442,16 +4451,16 @@
         <v>14</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C235">
-        <v>90</v>
+        <v>144.96</v>
       </c>
       <c r="D235" t="s">
         <v>6</v>
       </c>
       <c r="E235" s="1">
-        <v>34999999.999999918</v>
+        <v>56373333.333333209</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4459,16 +4468,16 @@
         <v>14</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>90</v>
+        <v>123.6</v>
       </c>
       <c r="D236" t="s">
         <v>6</v>
       </c>
       <c r="E236" s="1">
-        <v>34999999.999999918</v>
+        <v>48066666.666666552</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4476,16 +4485,16 @@
         <v>14</v>
       </c>
       <c r="B237">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>90</v>
+        <v>147.24</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E237" s="1">
-        <v>34999999.999999918</v>
+        <v>60259999.999999873</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,7 +4502,7 @@
         <v>14</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C238">
         <v>90</v>
@@ -4510,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="B239">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C239">
         <v>90</v>
@@ -4527,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="B240">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C240">
         <v>90</v>
@@ -4544,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="B241">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C241">
         <v>90</v>
@@ -4561,7 +4570,7 @@
         <v>14</v>
       </c>
       <c r="B242">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C242">
         <v>90</v>
@@ -4578,7 +4587,7 @@
         <v>14</v>
       </c>
       <c r="B243">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C243">
         <v>90</v>
@@ -4595,7 +4604,7 @@
         <v>14</v>
       </c>
       <c r="B244">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C244">
         <v>90</v>
@@ -4612,7 +4621,7 @@
         <v>14</v>
       </c>
       <c r="B245">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C245">
         <v>90</v>
@@ -4629,16 +4638,16 @@
         <v>14</v>
       </c>
       <c r="B246">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C246">
         <v>90</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E246" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -4646,16 +4655,16 @@
         <v>14</v>
       </c>
       <c r="B247">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C247">
         <v>90</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E247" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -4663,7 +4672,7 @@
         <v>14</v>
       </c>
       <c r="B248">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C248">
         <v>90</v>
@@ -4680,7 +4689,7 @@
         <v>14</v>
       </c>
       <c r="B249">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C249">
         <v>90</v>
@@ -4697,7 +4706,7 @@
         <v>14</v>
       </c>
       <c r="B250">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C250">
         <v>90</v>
@@ -4714,16 +4723,16 @@
         <v>14</v>
       </c>
       <c r="B251">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C251">
         <v>90</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E251" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -4731,16 +4740,16 @@
         <v>14</v>
       </c>
       <c r="B252">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C252">
         <v>90</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E252" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -4748,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="B253">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C253">
         <v>90</v>
@@ -4765,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="B254">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C254">
         <v>90</v>
@@ -4782,7 +4791,7 @@
         <v>14</v>
       </c>
       <c r="B255">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C255">
         <v>90</v>
@@ -4799,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="B256">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C256">
         <v>90</v>
@@ -4816,7 +4825,7 @@
         <v>14</v>
       </c>
       <c r="B257">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C257">
         <v>90</v>
@@ -4833,7 +4842,7 @@
         <v>14</v>
       </c>
       <c r="B258">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C258">
         <v>90</v>
@@ -4850,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="B259">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C259">
         <v>90</v>
@@ -4864,78 +4873,78 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C260">
-        <v>123.94</v>
+        <v>90</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260" s="1">
-        <v>51198888.888888776</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C261">
-        <v>147.58000000000001</v>
+        <v>90</v>
       </c>
       <c r="D261" t="s">
         <v>6</v>
       </c>
       <c r="E261" s="1">
-        <v>57392222.222222097</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C262">
-        <v>126.22</v>
+        <v>90</v>
       </c>
       <c r="D262" t="s">
         <v>6</v>
       </c>
       <c r="E262" s="1">
-        <v>49085555.55555544</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B263">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C263">
-        <v>149.86000000000001</v>
+        <v>90</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E263" s="1">
-        <v>61278888.888888761</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C264">
         <v>90</v>
@@ -4952,16 +4961,16 @@
         <v>15</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>90</v>
+        <v>123.94</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E265" s="1">
-        <v>34999999.999999918</v>
+        <v>51198888.888888776</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -4969,16 +4978,16 @@
         <v>15</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C266">
-        <v>90</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="D266" t="s">
         <v>6</v>
       </c>
       <c r="E266" s="1">
-        <v>34999999.999999918</v>
+        <v>57392222.222222097</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -4986,16 +4995,16 @@
         <v>15</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C267">
-        <v>90</v>
+        <v>126.22</v>
       </c>
       <c r="D267" t="s">
         <v>6</v>
       </c>
       <c r="E267" s="1">
-        <v>34999999.999999918</v>
+        <v>49085555.55555544</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5003,16 +5012,16 @@
         <v>15</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>90</v>
+        <v>149.86000000000001</v>
       </c>
       <c r="D268" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E268" s="1">
-        <v>34999999.999999918</v>
+        <v>61278888.888888761</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5020,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C269">
         <v>90</v>
@@ -5037,7 +5046,7 @@
         <v>15</v>
       </c>
       <c r="B270">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C270">
         <v>90</v>
@@ -5054,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="B271">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C271">
         <v>90</v>
@@ -5071,7 +5080,7 @@
         <v>15</v>
       </c>
       <c r="B272">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C272">
         <v>90</v>
@@ -5088,7 +5097,7 @@
         <v>15</v>
       </c>
       <c r="B273">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C273">
         <v>90</v>
@@ -5105,16 +5114,16 @@
         <v>15</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C274">
         <v>90</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E274" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5122,16 +5131,16 @@
         <v>15</v>
       </c>
       <c r="B275">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C275">
         <v>90</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E275" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5139,7 +5148,7 @@
         <v>15</v>
       </c>
       <c r="B276">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C276">
         <v>90</v>
@@ -5156,7 +5165,7 @@
         <v>15</v>
       </c>
       <c r="B277">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C277">
         <v>90</v>
@@ -5173,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="B278">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C278">
         <v>90</v>
@@ -5190,16 +5199,16 @@
         <v>15</v>
       </c>
       <c r="B279">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C279">
         <v>90</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E279" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,16 +5216,16 @@
         <v>15</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C280">
         <v>90</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E280" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5224,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C281">
         <v>90</v>
@@ -5241,7 +5250,7 @@
         <v>15</v>
       </c>
       <c r="B282">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C282">
         <v>90</v>
@@ -5258,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="B283">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C283">
         <v>90</v>
@@ -5275,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="B284">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C284">
         <v>90</v>
@@ -5289,10 +5298,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B285">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C285">
         <v>90</v>
@@ -5306,10 +5315,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B286">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C286">
         <v>90</v>
@@ -5323,10 +5332,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B287">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C287">
         <v>90</v>
@@ -5335,15 +5344,15 @@
         <v>6</v>
       </c>
       <c r="E287" s="1">
-        <v>34500000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B288">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C288">
         <v>90</v>
@@ -5352,15 +5361,15 @@
         <v>6</v>
       </c>
       <c r="E288" s="1">
-        <v>34500000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C289">
         <v>90</v>
@@ -5369,83 +5378,83 @@
         <v>6</v>
       </c>
       <c r="E289" s="1">
-        <v>35000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C290">
-        <v>118.66</v>
+        <v>90</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E290" s="1">
-        <v>37000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C291">
-        <v>95.04</v>
+        <v>90</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
       </c>
       <c r="E291" s="1">
-        <v>37000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C292">
-        <v>116.44</v>
+        <v>90</v>
       </c>
       <c r="D292" t="s">
         <v>6</v>
       </c>
       <c r="E292" s="1">
-        <v>37000000</v>
+        <v>34500000</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C293">
-        <v>92.82</v>
+        <v>90</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E293" s="1">
-        <v>37000000</v>
+        <v>34500000</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C294">
         <v>90</v>
@@ -5454,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="E294" s="1">
-        <v>37000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5462,13 +5471,13 @@
         <v>17</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C295">
-        <v>90</v>
+        <v>118.66</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E295" s="1">
         <v>37000000</v>
@@ -5479,10 +5488,10 @@
         <v>17</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C296">
-        <v>90</v>
+        <v>95.04</v>
       </c>
       <c r="D296" t="s">
         <v>6</v>
@@ -5496,10 +5505,10 @@
         <v>17</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C297">
-        <v>90</v>
+        <v>116.44</v>
       </c>
       <c r="D297" t="s">
         <v>6</v>
@@ -5513,13 +5522,13 @@
         <v>17</v>
       </c>
       <c r="B298">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C298">
-        <v>90</v>
+        <v>92.82</v>
       </c>
       <c r="D298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E298" s="1">
         <v>37000000</v>
@@ -5530,7 +5539,7 @@
         <v>17</v>
       </c>
       <c r="B299">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C299">
         <v>90</v>
@@ -5539,7 +5548,7 @@
         <v>6</v>
       </c>
       <c r="E299" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -5547,7 +5556,7 @@
         <v>17</v>
       </c>
       <c r="B300">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>90</v>
@@ -5556,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="E300" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5564,7 +5573,7 @@
         <v>17</v>
       </c>
       <c r="B301">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C301">
         <v>90</v>
@@ -5573,7 +5582,7 @@
         <v>6</v>
       </c>
       <c r="E301" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -5581,7 +5590,7 @@
         <v>17</v>
       </c>
       <c r="B302">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C302">
         <v>90</v>
@@ -5590,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="E302" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5598,7 +5607,7 @@
         <v>17</v>
       </c>
       <c r="B303">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C303">
         <v>90</v>
@@ -5607,7 +5616,7 @@
         <v>6</v>
       </c>
       <c r="E303" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -5615,7 +5624,7 @@
         <v>17</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C304">
         <v>90</v>
@@ -5632,16 +5641,16 @@
         <v>17</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C305">
         <v>90</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E305" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5649,16 +5658,16 @@
         <v>17</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C306">
         <v>90</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E306" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5666,7 +5675,7 @@
         <v>17</v>
       </c>
       <c r="B307">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C307">
         <v>90</v>
@@ -5683,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="B308">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C308">
         <v>90</v>
@@ -5700,7 +5709,7 @@
         <v>17</v>
       </c>
       <c r="B309">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C309">
         <v>90</v>
@@ -5717,16 +5726,16 @@
         <v>17</v>
       </c>
       <c r="B310">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C310">
         <v>90</v>
       </c>
       <c r="D310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E310" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -5734,16 +5743,16 @@
         <v>17</v>
       </c>
       <c r="B311">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C311">
         <v>90</v>
       </c>
       <c r="D311" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E311" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -5751,7 +5760,7 @@
         <v>17</v>
       </c>
       <c r="B312">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C312">
         <v>90</v>
@@ -5768,7 +5777,7 @@
         <v>17</v>
       </c>
       <c r="B313">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C313">
         <v>90</v>
@@ -5785,7 +5794,7 @@
         <v>17</v>
       </c>
       <c r="B314">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C314">
         <v>90</v>
@@ -5802,7 +5811,7 @@
         <v>17</v>
       </c>
       <c r="B315">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C315">
         <v>90</v>
@@ -5819,7 +5828,7 @@
         <v>17</v>
       </c>
       <c r="B316">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C316">
         <v>90</v>
@@ -5836,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="B317">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C317">
         <v>90</v>
@@ -5853,7 +5862,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C318">
         <v>90</v>
@@ -5862,83 +5871,83 @@
         <v>6</v>
       </c>
       <c r="E318" s="1">
-        <v>37000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C319">
-        <v>121.54</v>
+        <v>90</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E319" s="1">
-        <v>50265555.555555448</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C320">
-        <v>97.93</v>
+        <v>90</v>
       </c>
       <c r="D320" t="s">
         <v>6</v>
       </c>
       <c r="E320" s="1">
-        <v>38083888.888888806</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C321">
-        <v>119.32</v>
+        <v>90</v>
       </c>
       <c r="D321" t="s">
         <v>6</v>
       </c>
       <c r="E321" s="1">
-        <v>46402222.222222112</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C322">
-        <v>95.7</v>
+        <v>90</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E322" s="1">
-        <v>40216666.666666582</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B323">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C323">
         <v>90</v>
@@ -5947,7 +5956,7 @@
         <v>6</v>
       </c>
       <c r="E323" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,16 +5964,16 @@
         <v>18</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C324">
-        <v>90</v>
+        <v>121.54</v>
       </c>
       <c r="D324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E324" s="1">
-        <v>34999999.999999918</v>
+        <v>50265555.555555448</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -5972,16 +5981,16 @@
         <v>18</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C325">
-        <v>90</v>
+        <v>97.93</v>
       </c>
       <c r="D325" t="s">
         <v>6</v>
       </c>
       <c r="E325" s="1">
-        <v>34999999.999999918</v>
+        <v>38083888.888888806</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,16 +5998,16 @@
         <v>18</v>
       </c>
       <c r="B326">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C326">
-        <v>90</v>
+        <v>119.32</v>
       </c>
       <c r="D326" t="s">
         <v>6</v>
       </c>
       <c r="E326" s="1">
-        <v>34999999.999999918</v>
+        <v>46402222.222222112</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -6006,16 +6015,16 @@
         <v>18</v>
       </c>
       <c r="B327">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>90</v>
+        <v>95.7</v>
       </c>
       <c r="D327" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E327" s="1">
-        <v>34999999.999999918</v>
+        <v>40216666.666666582</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6023,7 +6032,7 @@
         <v>18</v>
       </c>
       <c r="B328">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C328">
         <v>90</v>
@@ -6040,7 +6049,7 @@
         <v>18</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C329">
         <v>90</v>
@@ -6049,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="E329" s="1">
-        <v>35000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,7 +6066,7 @@
         <v>18</v>
       </c>
       <c r="B330">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C330">
         <v>90</v>
@@ -6066,7 +6075,7 @@
         <v>6</v>
       </c>
       <c r="E330" s="1">
-        <v>35000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -6074,16 +6083,16 @@
         <v>18</v>
       </c>
       <c r="B331">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C331">
         <v>90</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E331" s="1">
-        <v>37000000</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6091,16 +6100,16 @@
         <v>18</v>
       </c>
       <c r="B332">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C332">
         <v>90</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E332" s="1">
-        <v>37999999.999999918</v>
+        <v>34999999.999999918</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -6108,7 +6117,7 @@
         <v>18</v>
       </c>
       <c r="B333">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C333">
         <v>90</v>
@@ -6125,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="B334">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C334">
         <v>90</v>
@@ -6134,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="E334" s="1">
-        <v>34999999.999999918</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6142,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="B335">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C335">
         <v>90</v>
@@ -6151,7 +6160,7 @@
         <v>6</v>
       </c>
       <c r="E335" s="1">
-        <v>34999999.999999918</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6159,16 +6168,16 @@
         <v>18</v>
       </c>
       <c r="B336">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C336">
         <v>90</v>
       </c>
       <c r="D336" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E336" s="1">
-        <v>34999999.999999918</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6176,16 +6185,16 @@
         <v>18</v>
       </c>
       <c r="B337">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C337">
         <v>90</v>
       </c>
       <c r="D337" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E337" s="1">
-        <v>34999999.999999918</v>
+        <v>37999999.999999918</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6193,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="B338">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C338">
         <v>90</v>
@@ -6210,7 +6219,7 @@
         <v>18</v>
       </c>
       <c r="B339">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C339">
         <v>90</v>
@@ -6227,7 +6236,7 @@
         <v>18</v>
       </c>
       <c r="B340">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C340">
         <v>90</v>
@@ -6244,15 +6253,100 @@
         <v>18</v>
       </c>
       <c r="B341">
+        <v>18</v>
+      </c>
+      <c r="C341">
+        <v>90</v>
+      </c>
+      <c r="D341" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341" s="1">
+        <v>34999999.999999918</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342">
+        <v>19</v>
+      </c>
+      <c r="C342">
+        <v>90</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" s="1">
+        <v>34999999.999999918</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343">
+        <v>20</v>
+      </c>
+      <c r="C343">
+        <v>90</v>
+      </c>
+      <c r="D343" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" s="1">
+        <v>34999999.999999918</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344">
+        <v>21</v>
+      </c>
+      <c r="C344">
+        <v>90</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" s="1">
+        <v>34999999.999999918</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345">
+        <v>22</v>
+      </c>
+      <c r="C345">
+        <v>90</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="1">
+        <v>34999999.999999918</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346">
         <v>23</v>
       </c>
-      <c r="C341">
-        <v>90</v>
-      </c>
-      <c r="D341" t="s">
-        <v>6</v>
-      </c>
-      <c r="E341" s="1">
+      <c r="C346">
+        <v>90</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="1">
         <v>34999999.999999918</v>
       </c>
     </row>
